--- a/data/trans_bre/P74B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,26; 88,87</t>
+          <t>55,47; 88,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,46; 59,8</t>
+          <t>25,27; 60,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 55,19</t>
+          <t>23,5; 56,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>578,09; 2177,0</t>
+          <t>541,82; 2261,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>200,22; 1128,71</t>
+          <t>195,57; 1068,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>108,69; 506,61</t>
+          <t>124,46; 562,86</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,39; 83,29</t>
+          <t>37,61; 83,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,82; 59,67</t>
+          <t>26,35; 60,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 45,4</t>
+          <t>9,78; 44,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>426,35; 2162,14</t>
+          <t>424,44; 2556,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>182,87; 737,31</t>
+          <t>165,48; 736,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,88; 415,72</t>
+          <t>52,75; 395,35</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,51; 88,2</t>
+          <t>58,67; 88,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,15; 63,24</t>
+          <t>37,9; 63,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,22; 68,29</t>
+          <t>38,01; 68,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1063,19; 3961,17</t>
+          <t>1068,12; 3752,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>236,73; 619,77</t>
+          <t>231,99; 624,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>251,33; 662,65</t>
+          <t>258,7; 671,62</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,64; 74,39</t>
+          <t>58,13; 74,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,87; 46,32</t>
+          <t>28,7; 46,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,64; 52,12</t>
+          <t>34,82; 51,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>547,34; 984,8</t>
+          <t>541,32; 978,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>211,2; 475,35</t>
+          <t>207,05; 458,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>270,45; 573,12</t>
+          <t>279,98; 578,24</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,06; 76,21</t>
+          <t>57,46; 75,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,24; 51,57</t>
+          <t>34,6; 50,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,71; 45,21</t>
+          <t>29,63; 45,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>440,92; 1666,16</t>
+          <t>444,33; 1647,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>156,79; 377,61</t>
+          <t>154,01; 381,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>173,12; 431,3</t>
+          <t>168,69; 434,97</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -7,95</t>
+          <t>-15,18; -7,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,05; 89,14</t>
+          <t>81,24; 88,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -7,95</t>
+          <t>-15,18; -7,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,89; 78,62</t>
+          <t>71,87; 78,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,48; 59,08</t>
+          <t>51,46; 59,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,67; 57,4</t>
+          <t>49,51; 57,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>819,6; 1236,04</t>
+          <t>808,34; 1243,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>364,77; 538,37</t>
+          <t>360,17; 531,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>357,83; 519,91</t>
+          <t>357,83; 529,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
